--- a/trial-demo.xlsx
+++ b/trial-demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rizkeesakundee/playground/exco-demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D268DA2-CAD9-8248-9530-0EB792A6799A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3123E3-9AB5-A14E-A78A-427872317C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="19220" windowHeight="21100" xr2:uid="{EAF973A7-00DE-904C-897C-61203B3378E0}"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="19220" windowHeight="19560" xr2:uid="{EAF973A7-00DE-904C-897C-61203B3378E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
